--- a/services/templates/padrao_Total_Contas.xlsx
+++ b/services/templates/padrao_Total_Contas.xlsx
@@ -50,14 +50,14 @@
     <t>CONTA</t>
   </si>
   <si>
-    <t>SUB-PROJETO</t>
+    <t>PROJETO(S)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +93,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Verdana"/>
@@ -125,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -157,9 +163,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -168,6 +171,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,7 +464,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A7" sqref="A7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -481,22 +493,22 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -511,53 +523,53 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/services/templates/padrao_Total_Contas.xlsx
+++ b/services/templates/padrao_Total_Contas.xlsx
@@ -44,13 +44,13 @@
     <t>SALDO</t>
   </si>
   <si>
-    <t>CONTROLE DE PROJETOS - SALDO DOS PROJETOS</t>
-  </si>
-  <si>
     <t>CONTA</t>
   </si>
   <si>
     <t>PROJETO(S)</t>
+  </si>
+  <si>
+    <t>CONTROLE DE PROJETOS -TOTAL DAS CONTAS</t>
   </si>
 </sst>
 </file>
@@ -172,13 +172,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,7 +464,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -489,7 +489,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -499,10 +499,10 @@
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
       <c r="J4" s="11"/>
@@ -535,16 +535,16 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="A7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="10" t="s">
         <v>5</v>
       </c>
